--- a/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6EB7CBC-2A9D-42BE-A50F-E264F1353F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF96637-7FAE-48F3-B006-972B1A199F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AE65C79B-24AB-497C-9084-3A7B03FC0A3C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E0423E89-4DDF-496D-BD9C-88DF5B0671D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,207 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
     <t>17,35%</t>
   </si>
   <si>
@@ -118,39 +298,9 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,95%</t>
   </si>
   <si>
@@ -172,33 +322,6 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
     <t>1,06%</t>
   </si>
   <si>
@@ -217,127 +340,58 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>15,13%</t>
@@ -367,33 +421,6 @@
     <t>16,26%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
@@ -421,33 +448,6 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
     <t>0,86%</t>
   </si>
   <si>
@@ -460,6 +460,189 @@
     <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
   </si>
   <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
     <t>17,25%</t>
   </si>
   <si>
@@ -484,33 +667,6 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
     <t>3,63%</t>
   </si>
   <si>
@@ -535,33 +691,6 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
     <t>2,01%</t>
   </si>
   <si>
@@ -574,139 +703,64 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>4,38%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>16,62%</t>
@@ -733,33 +787,6 @@
     <t>18,01%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
     <t>3,6%</t>
   </si>
   <si>
@@ -787,33 +814,6 @@
     <t>5,03%</t>
   </si>
   <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
     <t>1,4%</t>
   </si>
   <si>
@@ -838,15 +838,186 @@
     <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 45,63%)</t>
   </si>
   <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
     <t>12,75%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
     <t>11,95%</t>
   </si>
   <si>
@@ -865,33 +1036,6 @@
     <t>14,75%</t>
   </si>
   <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
     <t>4,48%</t>
   </si>
   <si>
@@ -919,33 +1063,6 @@
     <t>8,15%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
     <t>3,49%</t>
   </si>
   <si>
@@ -967,121 +1084,52 @@
     <t>3,39%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>12,34%</t>
@@ -1105,33 +1153,6 @@
     <t>12,18%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
     <t>4,97%</t>
   </si>
   <si>
@@ -1154,27 +1175,6 @@
   </si>
   <si>
     <t>7,87%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
   </si>
   <si>
     <t>1,62%</t>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF6AC1-AAC6-4B4C-9D13-0223877826F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4C57D3-2A4A-442D-8A6C-9967FE10FEA4}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1965,10 +1965,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>43134</v>
+        <v>49195</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1980,10 +1980,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>34255</v>
+        <v>34722</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1995,10 +1995,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>77389</v>
+        <v>83917</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2016,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>42411</v>
+        <v>5775</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2031,10 +2031,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>53194</v>
+        <v>9061</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2046,10 +2046,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>95604</v>
+        <v>14835</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2067,10 +2067,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>1374</v>
+        <v>3399</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2082,10 +2082,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>4092</v>
+        <v>2510</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2097,10 +2097,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5466</v>
+        <v>5909</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2118,10 +2118,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>158985</v>
+        <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2133,10 +2133,10 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>148953</v>
+        <v>2062</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -2148,10 +2148,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>307938</v>
+        <v>2762</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2169,49 +2169,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2638</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1270</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3908</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,102 +2220,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>248543</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48355</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>490306</v>
+        <v>107424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="D16" s="7">
-        <v>3399</v>
+        <v>158985</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>220</v>
+      </c>
+      <c r="I16" s="7">
+        <v>148953</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2510</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>459</v>
+      </c>
+      <c r="N16" s="7">
+        <v>307938</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5909</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,49 +2324,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>5775</v>
+        <v>42411</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>79</v>
+      </c>
+      <c r="I17" s="7">
+        <v>53194</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9061</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>143</v>
+      </c>
+      <c r="N17" s="7">
+        <v>95604</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="7">
-        <v>23</v>
-      </c>
-      <c r="N17" s="7">
-        <v>14835</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,49 +2375,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
-        <v>700</v>
+        <v>43134</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>52</v>
+      </c>
+      <c r="I18" s="7">
+        <v>34255</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2062</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>116</v>
+      </c>
+      <c r="N18" s="7">
+        <v>77389</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="7">
-        <v>4</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2762</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,49 +2426,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>49195</v>
+        <v>1374</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4092</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="7">
-        <v>51</v>
-      </c>
-      <c r="I19" s="7">
-        <v>34722</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5466</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="7">
-        <v>126</v>
-      </c>
-      <c r="N19" s="7">
-        <v>83917</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,49 +2477,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2638</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1270</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3908</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,49 +2528,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>248543</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48355</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>107424</v>
+        <v>490306</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,10 +2581,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="D22" s="7">
-        <v>46533</v>
+        <v>208180</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>100</v>
@@ -2596,10 +2596,10 @@
         <v>102</v>
       </c>
       <c r="H22" s="7">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="I22" s="7">
-        <v>36765</v>
+        <v>183676</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>103</v>
@@ -2611,10 +2611,10 @@
         <v>105</v>
       </c>
       <c r="M22" s="7">
-        <v>125</v>
+        <v>585</v>
       </c>
       <c r="N22" s="7">
-        <v>83298</v>
+        <v>391856</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>106</v>
@@ -2683,10 +2683,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7">
-        <v>2075</v>
+        <v>46533</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>118</v>
@@ -2698,10 +2698,10 @@
         <v>120</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I24" s="7">
-        <v>6154</v>
+        <v>36765</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>121</v>
@@ -2713,10 +2713,10 @@
         <v>123</v>
       </c>
       <c r="M24" s="7">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N24" s="7">
-        <v>8229</v>
+        <v>83298</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>124</v>
@@ -2734,10 +2734,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>314</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>208180</v>
+        <v>2075</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>127</v>
@@ -2749,10 +2749,10 @@
         <v>129</v>
       </c>
       <c r="H25" s="7">
-        <v>271</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
-        <v>183676</v>
+        <v>6154</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>130</v>
@@ -2764,10 +2764,10 @@
         <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>585</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>391856</v>
+        <v>8229</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>133</v>
@@ -2794,10 +2794,10 @@
         <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2809,7 +2809,7 @@
         <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>138</v>
@@ -2821,13 +2821,13 @@
         <v>3908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2842,13 @@
         <v>307611</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -2857,13 +2857,13 @@
         <v>290119</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>894</v>
@@ -2872,13 +2872,13 @@
         <v>597731</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDD954-BD2A-485A-A6E1-8532B761543F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600463F-0491-4F9F-A90F-EEF8EBEB5155}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3287,10 +3287,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>44720</v>
+        <v>38652</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>140</v>
@@ -3302,10 +3302,10 @@
         <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>40620</v>
+        <v>44568</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>143</v>
@@ -3314,22 +3314,22 @@
         <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N10" s="7">
-        <v>85339</v>
+        <v>83221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,40 +3338,40 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>49334</v>
+        <v>11996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>56393</v>
+        <v>16866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>105727</v>
+        <v>28862</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>154</v>
@@ -3389,49 +3389,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>9405</v>
+        <v>9231</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>157</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>11116</v>
+        <v>4960</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>20521</v>
+        <v>14191</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,40 +3440,40 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>218</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>150505</v>
+        <v>2276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>129257</v>
+        <v>627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M13" s="7">
-        <v>401</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>279761</v>
+        <v>2903</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>171</v>
@@ -3491,10 +3491,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>5220</v>
+        <v>3274</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>174</v>
@@ -3506,10 +3506,10 @@
         <v>176</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>5420</v>
+        <v>2347</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>177</v>
@@ -3521,19 +3521,19 @@
         <v>179</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>10640</v>
+        <v>5621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,102 +3542,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7">
-        <v>259183</v>
+        <v>65430</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242806</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>727</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>501988</v>
+        <v>134798</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="D16" s="7">
-        <v>9231</v>
+        <v>150505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="7">
         <v>183</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
       <c r="I16" s="7">
-        <v>4960</v>
+        <v>129257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="N16" s="7">
-        <v>14191</v>
+        <v>279761</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,49 +3646,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
-        <v>11996</v>
+        <v>49334</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>16866</v>
+        <v>56393</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="N17" s="7">
-        <v>28862</v>
+        <v>105727</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,49 +3697,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>2276</v>
+        <v>44720</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I18" s="7">
-        <v>627</v>
+        <v>40620</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="N18" s="7">
-        <v>2903</v>
+        <v>85339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,49 +3748,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>38652</v>
+        <v>9405</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>44568</v>
+        <v>11116</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>83221</v>
+        <v>20521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,46 +3799,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>3274</v>
+        <v>5220</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>2347</v>
+        <v>5420</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N20" s="7">
-        <v>5621</v>
+        <v>10640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>222</v>
@@ -3850,49 +3850,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>91</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>65430</v>
+        <v>259183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>727</v>
       </c>
       <c r="N21" s="7">
-        <v>134798</v>
+        <v>501988</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,10 +3903,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="D22" s="7">
-        <v>53950</v>
+        <v>189157</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>223</v>
@@ -3918,34 +3918,34 @@
         <v>225</v>
       </c>
       <c r="H22" s="7">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="I22" s="7">
-        <v>45580</v>
+        <v>173825</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
-        <v>144</v>
+        <v>518</v>
       </c>
       <c r="N22" s="7">
-        <v>99530</v>
+        <v>362982</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3960,13 @@
         <v>61330</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>106</v>
@@ -3975,13 +3975,13 @@
         <v>73259</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
         <v>196</v>
@@ -3990,13 +3990,13 @@
         <v>134589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,40 +4005,40 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7">
-        <v>11681</v>
+        <v>53950</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I24" s="7">
-        <v>11743</v>
+        <v>45580</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>245</v>
       </c>
       <c r="M24" s="7">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="N24" s="7">
-        <v>23424</v>
+        <v>99530</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>246</v>
@@ -4056,10 +4056,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>189157</v>
+        <v>11681</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>249</v>
@@ -4071,10 +4071,10 @@
         <v>251</v>
       </c>
       <c r="H25" s="7">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="I25" s="7">
-        <v>173825</v>
+        <v>11743</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>252</v>
@@ -4086,10 +4086,10 @@
         <v>254</v>
       </c>
       <c r="M25" s="7">
-        <v>518</v>
+        <v>35</v>
       </c>
       <c r="N25" s="7">
-        <v>362982</v>
+        <v>23424</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>255</v>
@@ -4113,7 +4113,7 @@
         <v>8494</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>258</v>
@@ -4149,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4164,13 @@
         <v>324612</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -4179,13 +4179,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>916</v>
@@ -4194,13 +4194,13 @@
         <v>636786</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09524113-8FB7-41F4-9C43-1FF96218EA6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3ECCAB-B4C8-495A-955D-43D790E7137D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4609,10 +4609,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>34845</v>
+        <v>43292</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>266</v>
@@ -4624,10 +4624,10 @@
         <v>268</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>30905</v>
+        <v>57076</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>269</v>
@@ -4639,10 +4639,10 @@
         <v>271</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>65750</v>
+        <v>100368</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>272</v>
@@ -4660,10 +4660,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>71408</v>
+        <v>17427</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>275</v>
@@ -4675,10 +4675,10 @@
         <v>277</v>
       </c>
       <c r="H11" s="7">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>55663</v>
+        <v>11208</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>278</v>
@@ -4690,19 +4690,19 @@
         <v>280</v>
       </c>
       <c r="M11" s="7">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>127071</v>
+        <v>28635</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4711,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>12256</v>
+        <v>8175</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10493</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H12" s="7">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7">
-        <v>21021</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>28</v>
+      </c>
+      <c r="N12" s="7">
+        <v>18669</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M12" s="7">
-        <v>46</v>
-      </c>
-      <c r="N12" s="7">
-        <v>33277</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +4762,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>150445</v>
+        <v>5076</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5116</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="7">
-        <v>198</v>
-      </c>
-      <c r="I13" s="7">
-        <v>143899</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>16</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10192</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="M13" s="7">
-        <v>401</v>
-      </c>
-      <c r="N13" s="7">
-        <v>294344</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,49 +4813,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>4382</v>
+        <v>1270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1969</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7151</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3239</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="M14" s="7">
-        <v>17</v>
-      </c>
-      <c r="N14" s="7">
-        <v>11534</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,102 +4864,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>85862</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>161103</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D16" s="7">
-        <v>8175</v>
+        <v>150445</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H16" s="7">
+        <v>198</v>
+      </c>
+      <c r="I16" s="7">
+        <v>143899</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10493</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>401</v>
+      </c>
+      <c r="N16" s="7">
+        <v>294344</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="M16" s="7">
-        <v>28</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18669</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,49 +4968,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>17427</v>
+        <v>71408</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="7">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7">
+        <v>55663</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11208</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>176</v>
+      </c>
+      <c r="N17" s="7">
+        <v>127071</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M17" s="7">
-        <v>42</v>
-      </c>
-      <c r="N17" s="7">
-        <v>28635</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,49 +5019,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>5076</v>
+        <v>34845</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="7">
+        <v>44</v>
+      </c>
+      <c r="I18" s="7">
+        <v>30905</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5116</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>92</v>
+      </c>
+      <c r="N18" s="7">
+        <v>65750</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="7">
-        <v>16</v>
-      </c>
-      <c r="N18" s="7">
-        <v>10192</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,49 +5070,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>43292</v>
+        <v>12256</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>29</v>
+      </c>
+      <c r="I19" s="7">
+        <v>21021</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="7">
-        <v>84</v>
-      </c>
-      <c r="I19" s="7">
-        <v>57076</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>46</v>
+      </c>
+      <c r="N19" s="7">
+        <v>33277</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="M19" s="7">
-        <v>147</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100368</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,43 +5121,43 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>1270</v>
+        <v>4382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H20" s="7">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7151</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1969</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>17</v>
+      </c>
+      <c r="N20" s="7">
+        <v>11534</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3239</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>346</v>
@@ -5172,49 +5172,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>109</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75240</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>85862</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>238</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>161103</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,10 +5225,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="D22" s="7">
-        <v>43020</v>
+        <v>193737</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>348</v>
@@ -5240,34 +5240,34 @@
         <v>350</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="I22" s="7">
-        <v>41398</v>
+        <v>200974</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>351</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="7">
+        <v>548</v>
+      </c>
+      <c r="N22" s="7">
+        <v>394711</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="M22" s="7">
-        <v>120</v>
-      </c>
-      <c r="N22" s="7">
-        <v>84418</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,10 +5327,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7">
-        <v>17332</v>
+        <v>43020</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>364</v>
@@ -5342,10 +5342,10 @@
         <v>366</v>
       </c>
       <c r="H24" s="7">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I24" s="7">
-        <v>26137</v>
+        <v>41398</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>367</v>
@@ -5354,22 +5354,22 @@
         <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="N24" s="7">
-        <v>43469</v>
+        <v>84418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,40 +5378,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>193737</v>
+        <v>17332</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>38</v>
+      </c>
+      <c r="I25" s="7">
+        <v>26137</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H25" s="7">
-        <v>282</v>
-      </c>
-      <c r="I25" s="7">
-        <v>200974</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
-        <v>548</v>
+        <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>394711</v>
+        <v>43469</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>376</v>
@@ -5438,10 +5438,10 @@
         <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5450,13 +5450,13 @@
         <v>9121</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -5465,7 +5465,7 @@
         <v>14773</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>380</v>
@@ -5486,13 +5486,13 @@
         <v>348577</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>491</v>
@@ -5501,13 +5501,13 @@
         <v>344501</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>970</v>
@@ -5516,13 +5516,13 @@
         <v>693078</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF96637-7FAE-48F3-B006-972B1A199F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94F4ADF-6A08-4D14-879C-5682DF00772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E0423E89-4DDF-496D-BD9C-88DF5B0671D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{128000FC-3CCF-4CD3-B3E3-058B3EF1FF26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,1123 +67,1183 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>55,58%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1254,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1290,39 +1350,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1374,7 +1434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1485,13 +1545,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1500,6 +1553,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1564,19 +1624,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4C57D3-2A4A-442D-8A6C-9967FE10FEA4}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7BB6-B366-44FF-BDCD-E05AF770BFD6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1965,49 +2045,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
-      </c>
-      <c r="D10" s="7">
-        <v>49195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7">
-        <v>34722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
-      </c>
-      <c r="N10" s="7">
-        <v>83917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,49 +2090,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,49 +2135,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,49 +2180,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,47 +2227,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,102 +2270,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>158985</v>
+        <v>632</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>148953</v>
+        <v>1270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>307938</v>
+        <v>1903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,49 +2368,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>42411</v>
+        <v>1395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>53194</v>
+        <v>2062</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>95604</v>
+        <v>3457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,49 +2419,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>43134</v>
+        <v>15699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>34255</v>
+        <v>6673</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="N18" s="7">
-        <v>77389</v>
+        <v>22372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,49 +2470,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>1374</v>
+        <v>20338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="7">
+        <v>42</v>
+      </c>
+      <c r="I19" s="7">
+        <v>27665</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4092</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="N19" s="7">
-        <v>5466</v>
+        <v>48003</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,49 +2521,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>2638</v>
+        <v>84844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="I20" s="7">
-        <v>1270</v>
+        <v>73513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="N20" s="7">
-        <v>3908</v>
+        <v>158357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,102 +2572,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>373</v>
+        <v>185</v>
       </c>
       <c r="D21" s="7">
-        <v>248543</v>
+        <v>122908</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>352</v>
       </c>
       <c r="N21" s="7">
-        <v>490306</v>
+        <v>234092</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>314</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>208180</v>
+        <v>2006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>183676</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>391856</v>
+        <v>2006</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,49 +2676,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>680</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4092</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="7">
-        <v>48185</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="7">
-        <v>93</v>
-      </c>
-      <c r="I23" s="7">
-        <v>62254</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="M23" s="7">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>110439</v>
+        <v>4772</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,49 +2727,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7">
-        <v>46533</v>
+        <v>30835</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I24" s="7">
-        <v>36765</v>
+        <v>30092</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="N24" s="7">
-        <v>83298</v>
+        <v>60926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,49 +2778,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7">
-        <v>2075</v>
+        <v>27847</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>6154</v>
+        <v>34589</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="N25" s="7">
-        <v>8229</v>
+        <v>62436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,49 +2829,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="D26" s="7">
-        <v>2638</v>
+        <v>123336</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="I26" s="7">
-        <v>1270</v>
+        <v>110162</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="N26" s="7">
-        <v>3908</v>
+        <v>233499</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,55 +2880,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>278</v>
+      </c>
+      <c r="D27" s="7">
+        <v>184703</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>542</v>
+      </c>
+      <c r="N27" s="7">
+        <v>363639</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2638</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1270</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3908</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2075</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>9</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6154</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7">
+        <v>12</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8229</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>69</v>
+      </c>
+      <c r="D30" s="7">
+        <v>46533</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
+        <v>56</v>
+      </c>
+      <c r="I30" s="7">
+        <v>36765</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="7">
+        <v>125</v>
+      </c>
+      <c r="N30" s="7">
+        <v>83298</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>73</v>
+      </c>
+      <c r="D31" s="7">
+        <v>48185</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
+        <v>93</v>
+      </c>
+      <c r="I31" s="7">
+        <v>62254</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="7">
+        <v>166</v>
+      </c>
+      <c r="N31" s="7">
+        <v>110439</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>314</v>
+      </c>
+      <c r="D32" s="7">
+        <v>208180</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
+        <v>271</v>
+      </c>
+      <c r="I32" s="7">
+        <v>183676</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" s="7">
+        <v>585</v>
+      </c>
+      <c r="N32" s="7">
+        <v>391856</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>463</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>307611</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>431</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290119</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>894</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>597731</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2897,8 +3255,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600463F-0491-4F9F-A90F-EEF8EBEB5155}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D419D3DC-DF71-4826-82BB-1BB93656BB57}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2914,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,49 +3645,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
-      </c>
-      <c r="D10" s="7">
-        <v>38652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
-      </c>
-      <c r="I10" s="7">
-        <v>44568</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>117</v>
-      </c>
-      <c r="N10" s="7">
-        <v>83221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,49 +3690,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>41</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,49 +3735,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7">
-        <v>14191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3780,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,49 +3825,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,102 +3870,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>91</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>150505</v>
+        <v>6030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>129257</v>
+        <v>2941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>279761</v>
+        <v>8971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,49 +3968,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>49334</v>
+        <v>7038</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>56393</v>
+        <v>4664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>105727</v>
+        <v>11702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,49 +4019,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>44720</v>
+        <v>19040</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>40620</v>
+        <v>15900</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="N18" s="7">
-        <v>85339</v>
+        <v>34940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,49 +4070,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>9405</v>
+        <v>26450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>11116</v>
+        <v>38071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="N19" s="7">
-        <v>20521</v>
+        <v>64521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,49 +4121,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>5220</v>
+        <v>96125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="I20" s="7">
-        <v>5420</v>
+        <v>88388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="N20" s="7">
-        <v>10640</v>
+        <v>184513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,102 +4172,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>222</v>
       </c>
       <c r="D21" s="7">
-        <v>259183</v>
+        <v>154683</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242806</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>727</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>501988</v>
+        <v>304647</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>189157</v>
+        <v>2464</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>173825</v>
+        <v>4825</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>362982</v>
+        <v>7290</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,49 +4276,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>61330</v>
+        <v>4643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="H23" s="7">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>73259</v>
+        <v>7078</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="N23" s="7">
-        <v>134589</v>
+        <v>11721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,49 +4327,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>53950</v>
+        <v>34910</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="H24" s="7">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I24" s="7">
-        <v>45580</v>
+        <v>29680</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="M24" s="7">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="N24" s="7">
-        <v>99530</v>
+        <v>64591</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4378,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7">
-        <v>11681</v>
+        <v>34880</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>11743</v>
+        <v>35188</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="N25" s="7">
-        <v>23424</v>
+        <v>70068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4429,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D26" s="7">
-        <v>8494</v>
+        <v>93032</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="I26" s="7">
-        <v>7767</v>
+        <v>85437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="M26" s="7">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="N26" s="7">
-        <v>16261</v>
+        <v>178469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,55 +4480,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>250</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169929</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>480</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332139</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8494</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="7">
+        <v>11</v>
+      </c>
+      <c r="I28" s="7">
+        <v>7767</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" s="7">
+        <v>23</v>
+      </c>
+      <c r="N28" s="7">
+        <v>16261</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11681</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="7">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7">
+        <v>11743</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" s="7">
+        <v>35</v>
+      </c>
+      <c r="N29" s="7">
+        <v>23424</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>80</v>
+      </c>
+      <c r="D30" s="7">
+        <v>53950</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="7">
+        <v>64</v>
+      </c>
+      <c r="I30" s="7">
+        <v>45580</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" s="7">
+        <v>144</v>
+      </c>
+      <c r="N30" s="7">
+        <v>99530</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>90</v>
+      </c>
+      <c r="D31" s="7">
+        <v>61330</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="7">
+        <v>106</v>
+      </c>
+      <c r="I31" s="7">
+        <v>73259</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" s="7">
+        <v>196</v>
+      </c>
+      <c r="N31" s="7">
+        <v>134589</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>272</v>
+      </c>
+      <c r="D32" s="7">
+        <v>189157</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H32" s="7">
+        <v>246</v>
+      </c>
+      <c r="I32" s="7">
+        <v>173825</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" s="7">
+        <v>518</v>
+      </c>
+      <c r="N32" s="7">
+        <v>362982</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>472</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>324612</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>444</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>312174</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>916</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>636786</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4219,8 +4855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3ECCAB-B4C8-495A-955D-43D790E7137D}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DBA1B7-B691-4A03-B2CE-F26F3A5BF42C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4236,7 +4872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4609,49 +5245,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
-      </c>
-      <c r="D10" s="7">
-        <v>43292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
-      </c>
-      <c r="I10" s="7">
-        <v>57076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>147</v>
-      </c>
-      <c r="N10" s="7">
-        <v>100368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,49 +5290,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7">
-        <v>17427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +5335,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>28</v>
-      </c>
-      <c r="N12" s="7">
-        <v>18669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +5380,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,49 +5425,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,102 +5470,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
-      </c>
-      <c r="I15" s="7">
-        <v>85862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
-      </c>
-      <c r="N15" s="7">
-        <v>161103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>150445</v>
+        <v>2671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>143899</v>
+        <v>4665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>294344</v>
+        <v>7337</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,49 +5568,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>71408</v>
+        <v>9175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>55663</v>
+        <v>9545</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>127071</v>
+        <v>18720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,49 +5619,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>34845</v>
+        <v>22834</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>30905</v>
+        <v>22659</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>65750</v>
+        <v>45492</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,49 +5670,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>12256</v>
+        <v>35272</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>21021</v>
+        <v>25194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="N19" s="7">
-        <v>33277</v>
+        <v>60466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,49 +5721,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="D20" s="7">
-        <v>4382</v>
+        <v>108033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="I20" s="7">
-        <v>7151</v>
+        <v>117631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="N20" s="7">
-        <v>11534</v>
+        <v>225664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,102 +5772,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>249</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>177985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>179694</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>506</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>357679</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>193737</v>
+        <v>2981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
-        <v>282</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>200974</v>
+        <v>4455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
-        <v>548</v>
+        <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>394711</v>
+        <v>7437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,49 +5876,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>88835</v>
+        <v>8157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I23" s="7">
-        <v>66871</v>
+        <v>16592</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="N23" s="7">
-        <v>155706</v>
+        <v>24749</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,49 +5927,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>43020</v>
+        <v>20187</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>41398</v>
+        <v>18739</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>87</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="N24" s="7">
-        <v>84418</v>
+        <v>38926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>43</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,49 +5978,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D25" s="7">
-        <v>17332</v>
+        <v>53563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>26137</v>
+        <v>41677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="N25" s="7">
-        <v>43469</v>
+        <v>95240</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +6029,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="D26" s="7">
-        <v>5652</v>
+        <v>85704</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I26" s="7">
-        <v>9121</v>
+        <v>83343</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="N26" s="7">
-        <v>14773</v>
+        <v>169047</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,55 +6080,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5652</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H28" s="7">
+        <v>14</v>
+      </c>
+      <c r="I28" s="7">
+        <v>9121</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M28" s="7">
+        <v>22</v>
+      </c>
+      <c r="N28" s="7">
+        <v>14773</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>24</v>
+      </c>
+      <c r="D29" s="7">
+        <v>17332</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="7">
+        <v>38</v>
+      </c>
+      <c r="I29" s="7">
+        <v>26137</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M29" s="7">
+        <v>62</v>
+      </c>
+      <c r="N29" s="7">
+        <v>43469</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43020</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" s="7">
+        <v>60</v>
+      </c>
+      <c r="I30" s="7">
+        <v>41398</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M30" s="7">
+        <v>120</v>
+      </c>
+      <c r="N30" s="7">
+        <v>84418</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>121</v>
+      </c>
+      <c r="D31" s="7">
+        <v>88835</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H31" s="7">
+        <v>97</v>
+      </c>
+      <c r="I31" s="7">
+        <v>66871</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M31" s="7">
+        <v>218</v>
+      </c>
+      <c r="N31" s="7">
+        <v>155706</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>266</v>
+      </c>
+      <c r="D32" s="7">
+        <v>193737</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="7">
+        <v>282</v>
+      </c>
+      <c r="I32" s="7">
+        <v>200975</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" s="7">
+        <v>548</v>
+      </c>
+      <c r="N32" s="7">
+        <v>394711</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>479</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>348577</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>491</v>
       </c>
-      <c r="I27" s="7">
-        <v>344501</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="I33" s="7">
+        <v>344502</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>970</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>693078</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94F4ADF-6A08-4D14-879C-5682DF00772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29756A87-F147-4411-8EDB-F4E8623EA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{128000FC-3CCF-4CD3-B3E3-058B3EF1FF26}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A84CCB7-E5A9-4B44-B5D5-3AD9B488505F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="403">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -100,13 +100,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,57%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -115,10 +115,10 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>1,85%</t>
@@ -133,76 +133,76 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>3,35%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>69,03%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>66,12%</t>
   </si>
   <si>
-    <t>59,04%</t>
+    <t>58,59%</t>
   </si>
   <si>
     <t>73,42%</t>
@@ -211,10 +211,10 @@
     <t>67,65%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -229,7 +229,7 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>0%</t>
@@ -244,1006 +244,1009 @@
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>29,79%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>55,58%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D7BB6-B366-44FF-BDCD-E05AF770BFD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0FEFE4-B864-4FD9-8445-D0F99A2A7B64}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2667,7 +2670,7 @@
         <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2685,13 @@
         <v>680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2697,13 +2700,13 @@
         <v>4092</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2712,13 +2715,13 @@
         <v>4772</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2736,13 @@
         <v>30835</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -2748,13 +2751,13 @@
         <v>30092</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>91</v>
@@ -2763,13 +2766,13 @@
         <v>60926</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2787,13 @@
         <v>27847</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2799,13 +2802,13 @@
         <v>34589</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -2814,13 +2817,13 @@
         <v>62436</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2838,13 @@
         <v>123336</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -2850,13 +2853,13 @@
         <v>110162</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>348</v>
@@ -2865,13 +2868,13 @@
         <v>233499</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2942,13 @@
         <v>2638</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2954,13 +2957,13 @@
         <v>1270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2969,13 +2972,13 @@
         <v>3908</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2993,13 @@
         <v>2075</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3005,13 +3008,13 @@
         <v>6154</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -3020,13 +3023,13 @@
         <v>8229</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3044,13 @@
         <v>46533</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -3056,13 +3059,13 @@
         <v>36765</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -3071,13 +3074,13 @@
         <v>83298</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3095,13 @@
         <v>48185</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>93</v>
@@ -3107,13 +3110,13 @@
         <v>62254</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>166</v>
@@ -3122,13 +3125,13 @@
         <v>110439</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3146,13 @@
         <v>208180</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H32" s="7">
         <v>271</v>
@@ -3158,13 +3161,13 @@
         <v>183676</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M32" s="7">
         <v>585</v>
@@ -3173,13 +3176,13 @@
         <v>391856</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3238,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D419D3DC-DF71-4826-82BB-1BB93656BB57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6233D109-F7A8-41D9-A727-B7DAA6C06F28}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,7 +3275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3923,13 +3926,13 @@
         <v>6030</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3938,13 +3941,13 @@
         <v>2941</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3953,13 +3956,13 @@
         <v>8971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3977,13 @@
         <v>7038</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3989,13 +3992,13 @@
         <v>4664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4004,13 +4007,13 @@
         <v>11702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4028,13 @@
         <v>19040</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -4040,13 +4043,13 @@
         <v>15900</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -4055,13 +4058,13 @@
         <v>34940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4079,13 @@
         <v>26450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -4091,13 +4094,13 @@
         <v>38071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -4106,13 +4109,13 @@
         <v>64521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4130,13 @@
         <v>96125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -4142,13 +4145,13 @@
         <v>88388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -4157,13 +4160,13 @@
         <v>184513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4234,13 @@
         <v>2464</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4246,13 +4249,13 @@
         <v>4825</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4261,13 +4264,13 @@
         <v>7290</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4285,13 @@
         <v>4643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4297,13 +4300,13 @@
         <v>7078</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -4312,13 +4315,13 @@
         <v>11721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4336,13 @@
         <v>34910</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -4348,13 +4351,13 @@
         <v>29680</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -4363,13 +4366,13 @@
         <v>64591</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4387,13 @@
         <v>34880</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4399,13 +4402,13 @@
         <v>35188</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -4414,13 +4417,13 @@
         <v>70068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4438,13 @@
         <v>93032</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -4450,13 +4453,13 @@
         <v>85437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>254</v>
@@ -4465,13 +4468,13 @@
         <v>178469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4542,13 @@
         <v>8494</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -4554,13 +4557,13 @@
         <v>7767</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -4569,13 +4572,13 @@
         <v>16261</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4593,13 @@
         <v>11681</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -4605,13 +4608,13 @@
         <v>11743</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -4620,13 +4623,13 @@
         <v>23424</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4644,13 @@
         <v>53950</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -4656,13 +4659,13 @@
         <v>45580</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M30" s="7">
         <v>144</v>
@@ -4671,13 +4674,13 @@
         <v>99530</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4695,13 @@
         <v>61330</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H31" s="7">
         <v>106</v>
@@ -4707,13 +4710,13 @@
         <v>73259</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M31" s="7">
         <v>196</v>
@@ -4722,13 +4725,13 @@
         <v>134589</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4746,7 @@
         <v>189157</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>267</v>
@@ -4776,10 +4779,10 @@
         <v>272</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4838,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DBA1B7-B691-4A03-B2CE-F26F3A5BF42C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0299212-62D2-4EB5-9768-C5BEB772DE5D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5523,10 +5526,10 @@
         <v>2671</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>275</v>
@@ -5559,7 +5562,7 @@
         <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5577,13 @@
         <v>9175</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5589,13 +5592,13 @@
         <v>9545</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -5604,13 +5607,13 @@
         <v>18720</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5628,13 @@
         <v>22834</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -5640,13 +5643,13 @@
         <v>22659</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -5655,13 +5658,13 @@
         <v>45492</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5679,13 @@
         <v>35272</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -5691,13 +5694,13 @@
         <v>25194</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -5706,13 +5709,13 @@
         <v>60466</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5730,13 @@
         <v>108033</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -5742,13 +5745,13 @@
         <v>117631</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>317</v>
@@ -5757,13 +5760,13 @@
         <v>225664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5834,13 @@
         <v>2981</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5846,13 +5849,13 @@
         <v>4455</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -5861,13 +5864,13 @@
         <v>7437</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5885,13 @@
         <v>8157</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -5897,13 +5900,13 @@
         <v>16592</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -5912,13 +5915,13 @@
         <v>24749</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5936,13 @@
         <v>20187</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -5948,13 +5951,13 @@
         <v>18739</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5963,13 +5966,13 @@
         <v>38926</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5987,13 @@
         <v>53563</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -5999,13 +6002,13 @@
         <v>41677</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>132</v>
@@ -6014,13 +6017,13 @@
         <v>95240</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6038,13 @@
         <v>85704</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -6050,13 +6053,13 @@
         <v>83343</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>231</v>
@@ -6065,13 +6068,13 @@
         <v>169047</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6142,13 @@
         <v>5652</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6154,13 +6157,13 @@
         <v>9121</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -6169,13 +6172,13 @@
         <v>14773</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>366</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,10 +6226,10 @@
         <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6244,13 @@
         <v>43020</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>60</v>
@@ -6256,13 +6259,13 @@
         <v>41398</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -6271,13 +6274,13 @@
         <v>84418</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6295,13 @@
         <v>88835</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H31" s="7">
         <v>97</v>
@@ -6307,13 +6310,13 @@
         <v>66871</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M31" s="7">
         <v>218</v>
@@ -6322,13 +6325,13 @@
         <v>155706</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,28 +6346,28 @@
         <v>193737</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H32" s="7">
         <v>282</v>
       </c>
       <c r="I32" s="7">
-        <v>200975</v>
+        <v>200974</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M32" s="7">
         <v>548</v>
@@ -6373,13 +6376,13 @@
         <v>394711</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,7 +6409,7 @@
         <v>491</v>
       </c>
       <c r="I33" s="7">
-        <v>344502</v>
+        <v>344501</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -6435,7 +6438,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29756A87-F147-4411-8EDB-F4E8623EA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{667BDDE6-0A80-4328-9EE9-CCB2FDDA9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A84CCB7-E5A9-4B44-B5D5-3AD9B488505F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ED1B09B5-BDE5-4085-B2B8-E59F1C8CA37C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="400">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,19 +94,19 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -115,1138 +115,1129 @@
     <t>0,26%</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>56,95%</t>
   </si>
   <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0FEFE4-B864-4FD9-8445-D0F99A2A7B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C64BF63-778A-44CC-9363-0C2761DDE007}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2320,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>632</v>
+        <v>1270</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2335,10 +2326,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1270</v>
+        <v>632</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2371,31 +2362,31 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2062</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1395</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2062</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>29</v>
@@ -2410,10 +2401,10 @@
         <v>30</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,34 +2413,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6673</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="7">
         <v>23</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>15699</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6673</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -2458,13 +2449,13 @@
         <v>22372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,34 +2464,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7">
+        <v>27665</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="7">
         <v>31</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>20338</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>27665</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -2509,13 +2500,13 @@
         <v>48003</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,34 +2515,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>109</v>
+      </c>
+      <c r="D20" s="7">
+        <v>73513</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="7">
         <v>128</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>84844</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="7">
-        <v>109</v>
-      </c>
-      <c r="I20" s="7">
-        <v>73513</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>237</v>
@@ -2560,13 +2551,13 @@
         <v>158357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,34 +2566,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>167</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111184</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>185</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>122908</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>167</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111184</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>352</v>
@@ -2611,30 +2602,30 @@
         <v>234092</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>62</v>
@@ -2643,19 +2634,19 @@
         <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2664,13 +2655,13 @@
         <v>2006</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,34 +2670,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4092</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>680</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="7">
-        <v>6</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4092</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2715,13 +2706,13 @@
         <v>4772</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,34 +2721,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30092</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="7">
         <v>46</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>30835</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="7">
-        <v>45</v>
-      </c>
-      <c r="I24" s="7">
-        <v>30092</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>91</v>
@@ -2766,13 +2757,13 @@
         <v>60926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,34 +2772,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>34589</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
         <v>42</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>27847</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="7">
-        <v>51</v>
-      </c>
-      <c r="I25" s="7">
-        <v>34589</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -2817,13 +2808,13 @@
         <v>62436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,34 +2823,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>162</v>
+      </c>
+      <c r="D26" s="7">
+        <v>110162</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="7">
         <v>186</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>123336</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="7">
-        <v>162</v>
-      </c>
-      <c r="I26" s="7">
-        <v>110162</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>348</v>
@@ -2868,13 +2859,13 @@
         <v>233499</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,34 +2874,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>278</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>184703</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>542</v>
@@ -2919,13 +2910,13 @@
         <v>363639</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,34 +2927,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>2638</v>
+        <v>1270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>1270</v>
+        <v>2638</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -2972,13 +2963,13 @@
         <v>3908</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,34 +2978,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7">
+        <v>6154</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
         <v>3</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>2075</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="7">
-        <v>9</v>
-      </c>
-      <c r="I29" s="7">
-        <v>6154</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -3023,13 +3014,13 @@
         <v>8229</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +3029,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D30" s="7">
-        <v>46533</v>
+        <v>36765</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>118</v>
@@ -3053,19 +3044,19 @@
         <v>120</v>
       </c>
       <c r="H30" s="7">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I30" s="7">
-        <v>36765</v>
+        <v>46533</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -3074,13 +3065,13 @@
         <v>83298</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,34 +3080,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>93</v>
+      </c>
+      <c r="D31" s="7">
+        <v>62254</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
         <v>73</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>48185</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="7">
-        <v>93</v>
-      </c>
-      <c r="I31" s="7">
-        <v>62254</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>166</v>
@@ -3125,13 +3116,13 @@
         <v>110439</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,34 +3131,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>271</v>
+      </c>
+      <c r="D32" s="7">
+        <v>183676</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
         <v>314</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>208180</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="7">
-        <v>271</v>
-      </c>
-      <c r="I32" s="7">
-        <v>183676</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M32" s="7">
         <v>585</v>
@@ -3176,13 +3167,13 @@
         <v>391856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,34 +3182,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>431</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290119</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>463</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>307611</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>431</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290119</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>894</v>
@@ -3227,18 +3218,18 @@
         <v>597731</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6233D109-F7A8-41D9-A727-B7DAA6C06F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3D43D2-E3A7-40B8-8A0F-71720FDF9BD2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3275,7 +3266,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3920,13 +3911,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>6030</v>
+        <v>2941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>147</v>
@@ -3935,10 +3926,10 @@
         <v>148</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>2941</v>
+        <v>6030</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>149</v>
@@ -3956,13 +3947,13 @@
         <v>8971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,34 +3962,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
+        <v>4664</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
         <v>7038</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4664</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4007,13 +3998,13 @@
         <v>11702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,34 +4013,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15900</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="7">
         <v>27</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>19040</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="7">
-        <v>22</v>
-      </c>
-      <c r="I18" s="7">
-        <v>15900</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -4058,13 +4049,13 @@
         <v>34940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,34 +4064,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7">
+        <v>38071</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="7">
         <v>38</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>26450</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="7">
-        <v>55</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38071</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -4109,13 +4100,13 @@
         <v>64521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,34 +4115,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>126</v>
+      </c>
+      <c r="D20" s="7">
+        <v>88388</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="7">
         <v>138</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>96125</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="7">
-        <v>126</v>
-      </c>
-      <c r="I20" s="7">
-        <v>88388</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -4160,13 +4151,13 @@
         <v>184513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,34 +4166,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>222</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>154683</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>436</v>
@@ -4211,51 +4202,51 @@
         <v>304647</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4825</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>2464</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="7">
-        <v>7</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4825</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4264,13 +4255,13 @@
         <v>7290</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,34 +4270,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7078</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>4643</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="7">
-        <v>10</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7078</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -4315,13 +4306,13 @@
         <v>11721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,34 +4321,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7">
+        <v>29680</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="7">
         <v>53</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>34910</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" s="7">
-        <v>42</v>
-      </c>
-      <c r="I24" s="7">
-        <v>29680</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -4366,13 +4357,13 @@
         <v>64591</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,34 +4372,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35188</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="7">
         <v>52</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>34880</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25" s="7">
-        <v>51</v>
-      </c>
-      <c r="I25" s="7">
-        <v>35188</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -4417,13 +4408,13 @@
         <v>70068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,34 +4423,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>120</v>
+      </c>
+      <c r="D26" s="7">
+        <v>85437</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="7">
         <v>134</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>93032</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" s="7">
-        <v>120</v>
-      </c>
-      <c r="I26" s="7">
-        <v>85437</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M26" s="7">
         <v>254</v>
@@ -4468,13 +4459,13 @@
         <v>178469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,34 +4474,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>250</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169929</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>480</v>
@@ -4519,13 +4510,13 @@
         <v>332139</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,34 +4527,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7767</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="7">
         <v>12</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>8494</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" s="7">
-        <v>11</v>
-      </c>
-      <c r="I28" s="7">
-        <v>7767</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -4572,13 +4563,13 @@
         <v>16261</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,31 +4578,31 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11743</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" s="7">
         <v>18</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>11681</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H29" s="7">
-        <v>17</v>
-      </c>
-      <c r="I29" s="7">
-        <v>11743</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>245</v>
@@ -4626,10 +4617,10 @@
         <v>246</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,34 +4629,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>64</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="7">
         <v>80</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>53950</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="7">
-        <v>64</v>
-      </c>
-      <c r="I30" s="7">
-        <v>45580</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M30" s="7">
         <v>144</v>
@@ -4674,13 +4665,13 @@
         <v>99530</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,34 +4680,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>106</v>
+      </c>
+      <c r="D31" s="7">
+        <v>73259</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="7">
         <v>90</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>61330</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H31" s="7">
-        <v>106</v>
-      </c>
-      <c r="I31" s="7">
-        <v>73259</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M31" s="7">
         <v>196</v>
@@ -4725,13 +4716,13 @@
         <v>134589</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,28 +4731,28 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>246</v>
+      </c>
+      <c r="D32" s="7">
+        <v>173825</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="7">
         <v>272</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>189157</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H32" s="7">
-        <v>246</v>
-      </c>
-      <c r="I32" s="7">
-        <v>173825</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>270</v>
@@ -4779,10 +4770,10 @@
         <v>272</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,34 +4782,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>444</v>
+      </c>
+      <c r="D33" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>472</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>324612</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>444</v>
-      </c>
-      <c r="I33" s="7">
-        <v>312174</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>916</v>
@@ -4827,18 +4818,18 @@
         <v>636786</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4858,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0299212-62D2-4EB5-9768-C5BEB772DE5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7F1643-23F4-4F28-82D2-8FCC2379EB13}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4875,7 +4866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5520,34 +5511,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4665</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2671</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4665</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5556,13 +5547,13 @@
         <v>7337</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,34 +5562,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9545</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>9175</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9545</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -5607,10 +5598,10 @@
         <v>18720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>289</v>
@@ -5625,7 +5616,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>22834</v>
+        <v>22659</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>290</v>
@@ -5640,7 +5631,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>22659</v>
+        <v>22834</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>293</v>
@@ -5649,7 +5640,7 @@
         <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -5658,13 +5649,13 @@
         <v>45492</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,10 +5664,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>35272</v>
+        <v>25194</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>298</v>
@@ -5688,10 +5679,10 @@
         <v>300</v>
       </c>
       <c r="H19" s="7">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I19" s="7">
-        <v>25194</v>
+        <v>35272</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>301</v>
@@ -5724,10 +5715,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7">
-        <v>108033</v>
+        <v>117631</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>307</v>
@@ -5739,19 +5730,19 @@
         <v>309</v>
       </c>
       <c r="H20" s="7">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="I20" s="7">
-        <v>117631</v>
+        <v>108033</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>317</v>
@@ -5760,13 +5751,13 @@
         <v>225664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,34 +5766,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>257</v>
+      </c>
+      <c r="D21" s="7">
+        <v>179694</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>249</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>177985</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>257</v>
-      </c>
-      <c r="I21" s="7">
-        <v>179694</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>506</v>
@@ -5811,30 +5802,30 @@
         <v>357679</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>2981</v>
+        <v>4455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>316</v>
@@ -5843,10 +5834,10 @@
         <v>317</v>
       </c>
       <c r="H22" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>4455</v>
+        <v>2981</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>318</v>
@@ -5867,10 +5858,10 @@
         <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,34 +5870,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
+        <v>16592</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" s="7">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7">
         <v>8157</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H23" s="7">
-        <v>23</v>
-      </c>
-      <c r="I23" s="7">
-        <v>16592</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>34</v>
@@ -5915,10 +5906,10 @@
         <v>24749</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>331</v>
@@ -5933,7 +5924,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>20187</v>
+        <v>18739</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>332</v>
@@ -5948,7 +5939,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>18739</v>
+        <v>20187</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>335</v>
@@ -5981,34 +5972,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7">
-        <v>53563</v>
+        <v>41677</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>71</v>
+      </c>
+      <c r="I25" s="7">
+        <v>53563</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H25" s="7">
-        <v>61</v>
-      </c>
-      <c r="I25" s="7">
-        <v>41677</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>132</v>
@@ -6017,13 +6008,13 @@
         <v>95240</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,34 +6023,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>115</v>
+      </c>
+      <c r="D26" s="7">
+        <v>83343</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H26" s="7">
         <v>116</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>85704</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H26" s="7">
-        <v>115</v>
-      </c>
-      <c r="I26" s="7">
-        <v>83343</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>231</v>
@@ -6068,13 +6059,13 @@
         <v>169047</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,34 +6074,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -6119,13 +6110,13 @@
         <v>335399</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,34 +6127,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9121</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H28" s="7">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>5652</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H28" s="7">
-        <v>14</v>
-      </c>
-      <c r="I28" s="7">
-        <v>9121</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -6172,13 +6163,13 @@
         <v>14773</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,34 +6178,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>38</v>
+      </c>
+      <c r="D29" s="7">
+        <v>26137</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="7">
         <v>24</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>17332</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H29" s="7">
-        <v>38</v>
-      </c>
-      <c r="I29" s="7">
-        <v>26137</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -6223,13 +6214,13 @@
         <v>43469</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,31 +6232,31 @@
         <v>60</v>
       </c>
       <c r="D30" s="7">
+        <v>41398</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H30" s="7">
+        <v>60</v>
+      </c>
+      <c r="I30" s="7">
         <v>43020</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H30" s="7">
-        <v>60</v>
-      </c>
-      <c r="I30" s="7">
-        <v>41398</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -6274,13 +6265,13 @@
         <v>84418</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,34 +6280,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>97</v>
+      </c>
+      <c r="D31" s="7">
+        <v>66871</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" s="7">
         <v>121</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>88835</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H31" s="7">
-        <v>97</v>
-      </c>
-      <c r="I31" s="7">
-        <v>66871</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M31" s="7">
         <v>218</v>
@@ -6325,13 +6316,13 @@
         <v>155706</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,34 +6331,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>282</v>
+      </c>
+      <c r="D32" s="7">
+        <v>200974</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="7">
         <v>266</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>193737</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H32" s="7">
-        <v>282</v>
-      </c>
-      <c r="I32" s="7">
-        <v>200974</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M32" s="7">
         <v>548</v>
@@ -6376,13 +6367,13 @@
         <v>394711</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,34 +6382,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>491</v>
+      </c>
+      <c r="D33" s="7">
+        <v>344501</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>479</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>348577</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>491</v>
-      </c>
-      <c r="I33" s="7">
-        <v>344501</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>970</v>
@@ -6427,18 +6418,18 @@
         <v>693078</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
